--- a/DOC/开发计划/DMS开发计划-12.08.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="报表" sheetId="8" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>功能模块</t>
   </si>
@@ -688,6 +688,10 @@
   </si>
   <si>
     <t>维修出库改为配件出库（快捷按钮）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -874,6 +878,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -894,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,8 +1367,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1401,7 +1405,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1415,10 +1419,12 @@
         <v>43442</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="9" t="s">
         <v>124</v>
       </c>
@@ -1430,10 +1436,12 @@
         <v>43442</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="24">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1447,10 +1455,12 @@
         <v>43442</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="40.5">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1477,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="24">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1492,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1507,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1522,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="24">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1537,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1544,7 +1554,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="24">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1569,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1584,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1599,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1616,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="24">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1631,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
@@ -1638,7 +1648,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7 16349:16384" s="3" customFormat="1" ht="36">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1693,7 +1703,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
@@ -1746,7 +1756,7 @@
       <c r="XFD18"/>
     </row>
     <row r="19" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1799,7 +1809,7 @@
       <c r="XFD19"/>
     </row>
     <row r="20" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
@@ -1852,7 +1862,7 @@
       <c r="XFD20"/>
     </row>
     <row r="21" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1907,7 +1917,7 @@
       <c r="XFD21"/>
     </row>
     <row r="22" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1970,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
@@ -2013,7 +2023,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2074,7 @@
       <c r="XFD24"/>
     </row>
     <row r="25" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
@@ -2115,7 +2125,7 @@
       <c r="XFD25"/>
     </row>
     <row r="26" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2176,7 @@
       <c r="XFD26"/>
     </row>
     <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
         <v>43</v>
       </c>
@@ -2219,7 +2229,7 @@
       <c r="XFD27"/>
     </row>
     <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
@@ -2270,7 +2280,7 @@
       <c r="XFD28"/>
     </row>
     <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2331,7 @@
       <c r="XFD29"/>
     </row>
     <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2372,7 +2382,7 @@
       <c r="XFD30"/>
     </row>
     <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="9" t="s">
         <v>46</v>
       </c>
@@ -2423,7 +2433,7 @@
       <c r="XFD31"/>
     </row>
     <row r="32" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="9" t="s">
         <v>47</v>
       </c>
@@ -2476,7 +2486,7 @@
       <c r="XFD32"/>
     </row>
     <row r="33" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
@@ -2527,7 +2537,7 @@
       <c r="XFD33"/>
     </row>
     <row r="34" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="9" t="s">
         <v>50</v>
       </c>
@@ -2578,7 +2588,7 @@
       <c r="XFD34"/>
     </row>
     <row r="35" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
         <v>51</v>
       </c>
@@ -2629,7 +2639,7 @@
       <c r="XFD35"/>
     </row>
     <row r="36" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="9" t="s">
         <v>52</v>
       </c>
@@ -2680,7 +2690,7 @@
       <c r="XFD36"/>
     </row>
     <row r="37" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="9" t="s">
         <v>53</v>
       </c>
@@ -2731,7 +2741,7 @@
       <c r="XFD37"/>
     </row>
     <row r="38" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="9" t="s">
         <v>54</v>
       </c>
@@ -2782,7 +2792,7 @@
       <c r="XFD38"/>
     </row>
     <row r="39" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
@@ -2833,7 +2843,7 @@
       <c r="XFD39"/>
     </row>
     <row r="40" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -2884,7 +2894,7 @@
       <c r="XFD40"/>
     </row>
     <row r="41" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A41" s="21"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
@@ -2935,7 +2945,7 @@
       <c r="XFD41"/>
     </row>
     <row r="42" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="9" t="s">
         <v>58</v>
       </c>
@@ -2986,7 +2996,7 @@
       <c r="XFD42"/>
     </row>
     <row r="43" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="13" t="s">
         <v>59</v>
       </c>
@@ -3037,7 +3047,7 @@
       <c r="XFD43"/>
     </row>
     <row r="44" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="13" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +3100,7 @@
       <c r="XFD44"/>
     </row>
     <row r="45" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="13" t="s">
         <v>61</v>
       </c>
@@ -3141,7 +3151,7 @@
       <c r="XFD45"/>
     </row>
     <row r="46" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="13" t="s">
         <v>64</v>
       </c>
@@ -3194,7 +3204,7 @@
       <c r="XFD46"/>
     </row>
     <row r="47" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="13" t="s">
         <v>66</v>
       </c>
@@ -3245,7 +3255,7 @@
       <c r="XFD47"/>
     </row>
     <row r="48" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="13" t="s">
         <v>74</v>
       </c>
@@ -3298,7 +3308,7 @@
       <c r="XFD48"/>
     </row>
     <row r="49" spans="1:7 16349:16384" s="3" customFormat="1" ht="40.5">
-      <c r="A49" s="21"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="13" t="s">
         <v>76</v>
       </c>
@@ -3349,7 +3359,7 @@
       <c r="XFD49"/>
     </row>
     <row r="50" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="13" t="s">
         <v>77</v>
       </c>
@@ -3400,7 +3410,7 @@
       <c r="XFD50"/>
     </row>
     <row r="51" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="15" t="s">
         <v>78</v>
       </c>
@@ -3451,7 +3461,7 @@
       <c r="XFD51"/>
     </row>
     <row r="52" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="15" t="s">
         <v>79</v>
       </c>
@@ -3553,7 +3563,7 @@
       <c r="XFD53"/>
     </row>
     <row r="54" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -3606,7 +3616,7 @@
       <c r="XFD54"/>
     </row>
     <row r="55" spans="1:7 16349:16384" s="3" customFormat="1" ht="40.5">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="13" t="s">
         <v>80</v>
       </c>
@@ -3710,7 +3720,7 @@
       <c r="XFD56"/>
     </row>
     <row r="57" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -3765,7 +3775,7 @@
       <c r="XFD57"/>
     </row>
     <row r="58" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="2"/>
       <c r="D58" s="9" t="s">
@@ -3814,7 +3824,7 @@
       <c r="XFD58"/>
     </row>
     <row r="59" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -3867,7 +3877,7 @@
       <c r="XFD59"/>
     </row>
     <row r="60" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="9" t="s">
         <v>94</v>
       </c>
@@ -3920,7 +3930,7 @@
       <c r="XFD60"/>
     </row>
     <row r="61" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="24"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="9" t="s">
         <v>95</v>
       </c>
@@ -3973,7 +3983,7 @@
       <c r="XFD61"/>
     </row>
     <row r="62" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="24"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="9" t="s">
         <v>96</v>
       </c>
@@ -4026,7 +4036,7 @@
       <c r="XFD62"/>
     </row>
     <row r="63" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="9" t="s">
         <v>97</v>
       </c>
@@ -4079,7 +4089,7 @@
       <c r="XFD63"/>
     </row>
     <row r="64" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="9" t="s">
         <v>101</v>
       </c>
@@ -4132,7 +4142,7 @@
       <c r="XFD64"/>
     </row>
     <row r="65" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="9" t="s">
         <v>98</v>
       </c>
@@ -4185,7 +4195,7 @@
       <c r="XFD65"/>
     </row>
     <row r="66" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -4238,7 +4248,7 @@
       <c r="XFD66"/>
     </row>
     <row r="67" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.75">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
         <v>69</v>
       </c>
@@ -4289,7 +4299,7 @@
       <c r="XFD67"/>
     </row>
     <row r="68" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="9" t="s">
         <v>92</v>
       </c>
@@ -4340,7 +4350,7 @@
       <c r="XFD68"/>
     </row>
     <row r="69" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="9" t="s">
         <v>99</v>
       </c>
@@ -4393,7 +4403,7 @@
       <c r="XFD69"/>
     </row>
     <row r="70" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="9" t="s">
         <v>100</v>
       </c>
@@ -4444,7 +4454,7 @@
       <c r="XFD70"/>
     </row>
     <row r="71" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="9" t="s">
         <v>102</v>
       </c>
@@ -4497,7 +4507,7 @@
       <c r="XFD71"/>
     </row>
     <row r="72" spans="1:7 16349:16384" s="3" customFormat="1" ht="100.5">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="9" t="s">
         <v>70</v>
       </c>
@@ -4565,9 +4575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4584,94 +4595,95 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="19" spans="6:7">
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/开发计划/DMS开发计划-12.08.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.08.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>功能模块</t>
   </si>
@@ -1367,8 +1367,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1474,7 +1474,9 @@
         <v>43442</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="24">
       <c r="A6" s="20"/>
@@ -1489,7 +1491,9 @@
         <v>43442</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="20"/>
@@ -1534,7 +1538,9 @@
         <v>43442</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="20"/>

--- a/DOC/开发计划/DMS开发计划-12.08.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.08.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
   <si>
     <t>功能模块</t>
   </si>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t>所有涉及到客户手机号的功能界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开单详情页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -692,6 +688,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单详情页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1367,8 +1367,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1413,31 +1413,31 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="8">
         <v>43442</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8">
         <v>43442</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="24">
@@ -1445,18 +1445,18 @@
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="8">
         <v>43442</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="40.5">
@@ -1468,14 +1468,14 @@
         <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="8">
         <v>43442</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="24">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8">
         <v>43442</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="8">
         <v>43442</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="8">
         <v>43442</v>
@@ -1532,14 +1532,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8">
         <v>43442</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1548,10 +1548,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="8">
         <v>43442</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8">
         <v>43442</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="8">
         <v>43442</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="8">
         <v>43442</v>
@@ -1613,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8">
         <v>43442</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8">
         <v>43442</v>
@@ -1642,10 +1642,10 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8">
         <v>43442</v>
@@ -1661,10 +1661,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="8">
         <v>43442</v>
@@ -1717,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="8">
         <v>43442</v>
@@ -1770,7 +1770,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="8">
         <v>43442</v>
@@ -1823,7 +1823,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="8">
         <v>43442</v>
@@ -1878,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="8">
         <v>43442</v>
@@ -1931,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="8">
         <v>43442</v>
@@ -1984,7 +1984,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="8">
         <v>43442</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="8">
         <v>43442</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="8">
         <v>43442</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="8">
         <v>43442</v>
@@ -2184,13 +2184,13 @@
     <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8">
         <v>43442</v>
@@ -2237,11 +2237,11 @@
     <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="8">
         <v>43442</v>
@@ -2288,11 +2288,11 @@
     <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A29" s="22"/>
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="8">
         <v>43442</v>
@@ -2339,11 +2339,11 @@
     <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A30" s="22"/>
       <c r="B30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="8">
         <v>43442</v>
@@ -2390,11 +2390,11 @@
     <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="8">
         <v>43442</v>
@@ -2441,13 +2441,13 @@
     <row r="32" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="8">
         <v>43442</v>
@@ -2494,11 +2494,11 @@
     <row r="33" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="8">
         <v>43442</v>
@@ -2545,11 +2545,11 @@
     <row r="34" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="8">
         <v>43442</v>
@@ -2596,11 +2596,11 @@
     <row r="35" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="8">
         <v>43442</v>
@@ -2647,11 +2647,11 @@
     <row r="36" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="8">
         <v>43442</v>
@@ -2698,11 +2698,11 @@
     <row r="37" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A37" s="22"/>
       <c r="B37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="8">
         <v>43442</v>
@@ -2749,11 +2749,11 @@
     <row r="38" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A38" s="22"/>
       <c r="B38" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="8">
         <v>43442</v>
@@ -2800,11 +2800,11 @@
     <row r="39" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="8">
         <v>43442</v>
@@ -2851,11 +2851,11 @@
     <row r="40" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A40" s="22"/>
       <c r="B40" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="8">
         <v>43442</v>
@@ -2902,11 +2902,11 @@
     <row r="41" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A41" s="22"/>
       <c r="B41" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="8">
         <v>43442</v>
@@ -2953,11 +2953,11 @@
     <row r="42" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A42" s="22"/>
       <c r="B42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="8">
         <v>43442</v>
@@ -3004,11 +3004,11 @@
     <row r="43" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A43" s="22"/>
       <c r="B43" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="8">
         <v>43442</v>
@@ -3055,13 +3055,13 @@
     <row r="44" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="22"/>
       <c r="B44" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="8">
         <v>43442</v>
@@ -3108,11 +3108,11 @@
     <row r="45" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A45" s="22"/>
       <c r="B45" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="8">
         <v>43442</v>
@@ -3159,13 +3159,13 @@
     <row r="46" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="22"/>
       <c r="B46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" s="8">
         <v>43442</v>
@@ -3212,11 +3212,11 @@
     <row r="47" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="8">
         <v>43442</v>
@@ -3263,13 +3263,13 @@
     <row r="48" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="D48" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" s="8">
         <v>43442</v>
@@ -3316,11 +3316,11 @@
     <row r="49" spans="1:7 16349:16384" s="3" customFormat="1" ht="40.5">
       <c r="A49" s="22"/>
       <c r="B49" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="8">
         <v>43442</v>
@@ -3367,11 +3367,11 @@
     <row r="50" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A50" s="22"/>
       <c r="B50" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" s="8">
         <v>43442</v>
@@ -3418,11 +3418,11 @@
     <row r="51" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A51" s="22"/>
       <c r="B51" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="8">
         <v>43442</v>
@@ -3469,11 +3469,11 @@
     <row r="52" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A52" s="22"/>
       <c r="B52" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="8">
         <v>43442</v>
@@ -3519,12 +3519,12 @@
     </row>
     <row r="53" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
       <c r="D53" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="8">
         <v>43442</v>
@@ -3570,14 +3570,14 @@
     </row>
     <row r="54" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A54" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="8">
         <v>43442</v>
@@ -3624,17 +3624,19 @@
     <row r="55" spans="1:7 16349:16384" s="3" customFormat="1" ht="40.5">
       <c r="A55" s="23"/>
       <c r="B55" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="8">
         <v>43442</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="XDU55"/>
       <c r="XDV55"/>
       <c r="XDW55"/>
@@ -3674,14 +3676,14 @@
     </row>
     <row r="56" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="8">
         <v>43442</v>
@@ -3727,16 +3729,16 @@
     </row>
     <row r="57" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A57" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="C57" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="E57" s="8">
         <v>43442</v>
@@ -3785,7 +3787,7 @@
       <c r="B58" s="13"/>
       <c r="C58" s="2"/>
       <c r="D58" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="8">
         <v>43442</v>
@@ -3831,13 +3833,13 @@
     </row>
     <row r="59" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A59" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="8">
@@ -3885,13 +3887,13 @@
     <row r="60" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" s="8">
         <v>43444</v>
@@ -3938,13 +3940,13 @@
     <row r="61" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="8">
         <v>43444</v>
@@ -3991,13 +3993,13 @@
     <row r="62" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="8">
         <v>43444</v>
@@ -4044,13 +4046,13 @@
     <row r="63" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="8">
         <v>43444</v>
@@ -4097,13 +4099,13 @@
     <row r="64" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="25"/>
       <c r="B64" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="8">
         <v>43444</v>
@@ -4150,13 +4152,13 @@
     <row r="65" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="8">
         <v>43444</v>
@@ -4202,14 +4204,14 @@
     </row>
     <row r="66" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" s="8">
         <v>43444</v>
@@ -4256,11 +4258,11 @@
     <row r="67" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.75">
       <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="8">
         <v>43444</v>
@@ -4307,11 +4309,11 @@
     <row r="68" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E68" s="8">
         <v>43444</v>
@@ -4358,13 +4360,13 @@
     <row r="69" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="20"/>
       <c r="B69" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" s="8">
         <v>43444</v>
@@ -4411,11 +4413,11 @@
     <row r="70" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="20"/>
       <c r="B70" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E70" s="8">
         <v>43444</v>
@@ -4462,13 +4464,13 @@
     <row r="71" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="20"/>
       <c r="B71" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E71" s="8">
         <v>43444</v>
@@ -4515,10 +4517,10 @@
     <row r="72" spans="1:7 16349:16384" s="3" customFormat="1" ht="100.5">
       <c r="A72" s="20"/>
       <c r="B72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="8">
@@ -4602,61 +4604,61 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="C3" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="I8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="F13" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="18"/>
     </row>
@@ -4666,23 +4668,23 @@
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="18"/>
     </row>

--- a/DOC/开发计划/DMS开发计划-12.08.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.08.xlsx
@@ -10,12 +10,15 @@
     <sheet name="报表" sheetId="8" r:id="rId1"/>
     <sheet name="服务顾问" sheetId="9" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报表!$1:$72</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>功能模块</t>
   </si>
@@ -95,10 +98,6 @@
   </si>
   <si>
     <t>目前为连锁可见</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>树结构显示提醒类型（客户接触点），漏斗图</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -694,6 +693,14 @@
     <t>开单详情页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>品牌车型显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>树结构显示提醒类型（客户接触点），漏斗图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -743,7 +750,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +914,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,11 +1383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
+  <sheetPr codeName="Sheet9" filterMode="1"/>
   <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1381,7 +1400,7 @@
     <col min="8" max="16348" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="39.6" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="39.6" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -1413,53 +1432,53 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="8">
         <v>43442</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="8">
         <v>43442</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="8">
         <v>43442</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="40.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="40.5" hidden="1">
       <c r="A5" s="20"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
@@ -1468,41 +1487,44 @@
         <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="8">
         <v>43442</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="20"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8">
         <v>43442</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="8">
         <v>43442</v>
@@ -1510,14 +1532,14 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="8">
         <v>43442</v>
@@ -1525,33 +1547,33 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="24">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A9" s="20"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="8">
         <v>43442</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8">
         <v>43442</v>
@@ -1559,29 +1581,31 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="24">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A11" s="20"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="8">
         <v>43442</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G11" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="8">
         <v>43442</v>
@@ -1589,22 +1613,24 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="8">
         <v>43442</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G13" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="9" t="s">
         <v>20</v>
@@ -1613,39 +1639,41 @@
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="8">
         <v>43442</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="24">
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="24">
       <c r="A15" s="20"/>
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="8">
         <v>43442</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="8">
         <v>43442</v>
@@ -1653,24 +1681,25 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7 16349:16384" s="3" customFormat="1" ht="36">
+    <row r="17" spans="1:9 16349:16384" s="3" customFormat="1" ht="36">
       <c r="A17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8">
         <v>43442</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
+      <c r="I17" s="27"/>
       <c r="XDU17"/>
       <c r="XDV17"/>
       <c r="XDW17"/>
@@ -1708,22 +1737,23 @@
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
-    <row r="18" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="18" spans="1:9 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A18" s="19"/>
       <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8">
         <v>43442</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="10"/>
+      <c r="I18" s="27"/>
       <c r="XDU18"/>
       <c r="XDV18"/>
       <c r="XDW18"/>
@@ -1761,22 +1791,24 @@
       <c r="XFC18"/>
       <c r="XFD18"/>
     </row>
-    <row r="19" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="19" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A19" s="19"/>
       <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8">
         <v>43442</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU19"/>
       <c r="XDV19"/>
       <c r="XDW19"/>
@@ -1814,16 +1846,16 @@
       <c r="XFC19"/>
       <c r="XFD19"/>
     </row>
-    <row r="20" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="8">
         <v>43442</v>
@@ -1867,24 +1899,26 @@
       <c r="XFC20"/>
       <c r="XFD20"/>
     </row>
-    <row r="21" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="8">
         <v>43442</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU21"/>
       <c r="XDV21"/>
       <c r="XDW21"/>
@@ -1922,22 +1956,24 @@
       <c r="XFC21"/>
       <c r="XFD21"/>
     </row>
-    <row r="22" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="8">
         <v>43442</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU22"/>
       <c r="XDV22"/>
       <c r="XDW22"/>
@@ -1975,22 +2011,24 @@
       <c r="XFC22"/>
       <c r="XFD22"/>
     </row>
-    <row r="23" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="8">
         <v>43442</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU23"/>
       <c r="XDV23"/>
       <c r="XDW23"/>
@@ -2028,20 +2066,22 @@
       <c r="XFC23"/>
       <c r="XFD23"/>
     </row>
-    <row r="24" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="8">
         <v>43442</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU24"/>
       <c r="XDV24"/>
       <c r="XDW24"/>
@@ -2079,20 +2119,21 @@
       <c r="XFC24"/>
       <c r="XFD24"/>
     </row>
-    <row r="25" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8">
         <v>43442</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
+      <c r="I25" s="27"/>
       <c r="XDU25"/>
       <c r="XDV25"/>
       <c r="XDW25"/>
@@ -2130,20 +2171,22 @@
       <c r="XFC25"/>
       <c r="XFD25"/>
     </row>
-    <row r="26" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8">
         <v>43442</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU26"/>
       <c r="XDV26"/>
       <c r="XDW26"/>
@@ -2181,22 +2224,24 @@
       <c r="XFC26"/>
       <c r="XFD26"/>
     </row>
-    <row r="27" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="8">
         <v>43442</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU27"/>
       <c r="XDV27"/>
       <c r="XDW27"/>
@@ -2234,20 +2279,21 @@
       <c r="XFC27"/>
       <c r="XFD27"/>
     </row>
-    <row r="28" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="8">
         <v>43442</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
+      <c r="I28" s="27"/>
       <c r="XDU28"/>
       <c r="XDV28"/>
       <c r="XDW28"/>
@@ -2285,20 +2331,21 @@
       <c r="XFC28"/>
       <c r="XFD28"/>
     </row>
-    <row r="29" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="29" spans="1:9 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A29" s="22"/>
       <c r="B29" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="8">
         <v>43442</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
+      <c r="I29" s="27"/>
       <c r="XDU29"/>
       <c r="XDV29"/>
       <c r="XDW29"/>
@@ -2336,20 +2383,22 @@
       <c r="XFC29"/>
       <c r="XFD29"/>
     </row>
-    <row r="30" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="30" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A30" s="22"/>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="8">
         <v>43442</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU30"/>
       <c r="XDV30"/>
       <c r="XDW30"/>
@@ -2387,20 +2436,22 @@
       <c r="XFC30"/>
       <c r="XFD30"/>
     </row>
-    <row r="31" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8">
         <v>43442</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU31"/>
       <c r="XDV31"/>
       <c r="XDW31"/>
@@ -2438,22 +2489,24 @@
       <c r="XFC31"/>
       <c r="XFD31"/>
     </row>
-    <row r="32" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8">
         <v>43442</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU32"/>
       <c r="XDV32"/>
       <c r="XDW32"/>
@@ -2491,20 +2544,22 @@
       <c r="XFC32"/>
       <c r="XFD32"/>
     </row>
-    <row r="33" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="8">
         <v>43442</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU33"/>
       <c r="XDV33"/>
       <c r="XDW33"/>
@@ -2542,20 +2597,22 @@
       <c r="XFC33"/>
       <c r="XFD33"/>
     </row>
-    <row r="34" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="8">
         <v>43442</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU34"/>
       <c r="XDV34"/>
       <c r="XDW34"/>
@@ -2593,20 +2650,22 @@
       <c r="XFC34"/>
       <c r="XFD34"/>
     </row>
-    <row r="35" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="35" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="8">
         <v>43442</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU35"/>
       <c r="XDV35"/>
       <c r="XDW35"/>
@@ -2644,20 +2703,22 @@
       <c r="XFC35"/>
       <c r="XFD35"/>
     </row>
-    <row r="36" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="8">
         <v>43442</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU36"/>
       <c r="XDV36"/>
       <c r="XDW36"/>
@@ -2695,20 +2756,22 @@
       <c r="XFC36"/>
       <c r="XFD36"/>
     </row>
-    <row r="37" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="37" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A37" s="22"/>
       <c r="B37" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="8">
         <v>43442</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU37"/>
       <c r="XDV37"/>
       <c r="XDW37"/>
@@ -2746,20 +2809,22 @@
       <c r="XFC37"/>
       <c r="XFD37"/>
     </row>
-    <row r="38" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="38" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A38" s="22"/>
       <c r="B38" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="8">
         <v>43442</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU38"/>
       <c r="XDV38"/>
       <c r="XDW38"/>
@@ -2797,20 +2862,22 @@
       <c r="XFC38"/>
       <c r="XFD38"/>
     </row>
-    <row r="39" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="8">
         <v>43442</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU39"/>
       <c r="XDV39"/>
       <c r="XDW39"/>
@@ -2848,20 +2915,22 @@
       <c r="XFC39"/>
       <c r="XFD39"/>
     </row>
-    <row r="40" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="40" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A40" s="22"/>
       <c r="B40" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="8">
         <v>43442</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU40"/>
       <c r="XDV40"/>
       <c r="XDW40"/>
@@ -2899,20 +2968,22 @@
       <c r="XFC40"/>
       <c r="XFD40"/>
     </row>
-    <row r="41" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="41" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A41" s="22"/>
       <c r="B41" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="8">
         <v>43442</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU41"/>
       <c r="XDV41"/>
       <c r="XDW41"/>
@@ -2950,20 +3021,22 @@
       <c r="XFC41"/>
       <c r="XFD41"/>
     </row>
-    <row r="42" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="42" spans="1:9 16349:16384" s="3" customFormat="1" ht="24" hidden="1">
       <c r="A42" s="22"/>
       <c r="B42" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="8">
         <v>43442</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU42"/>
       <c r="XDV42"/>
       <c r="XDW42"/>
@@ -3001,20 +3074,21 @@
       <c r="XFC42"/>
       <c r="XFD42"/>
     </row>
-    <row r="43" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="43" spans="1:9 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A43" s="22"/>
       <c r="B43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="8">
         <v>43442</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="10"/>
+      <c r="I43" s="27"/>
       <c r="XDU43"/>
       <c r="XDV43"/>
       <c r="XDW43"/>
@@ -3052,22 +3126,23 @@
       <c r="XFC43"/>
       <c r="XFD43"/>
     </row>
-    <row r="44" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="22"/>
       <c r="B44" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="8">
         <v>43442</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="10"/>
+      <c r="I44" s="27"/>
       <c r="XDU44"/>
       <c r="XDV44"/>
       <c r="XDW44"/>
@@ -3105,20 +3180,22 @@
       <c r="XFC44"/>
       <c r="XFD44"/>
     </row>
-    <row r="45" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="45" spans="1:9 16349:16384" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A45" s="22"/>
       <c r="B45" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="8">
         <v>43442</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU45"/>
       <c r="XDV45"/>
       <c r="XDW45"/>
@@ -3156,22 +3233,23 @@
       <c r="XFC45"/>
       <c r="XFD45"/>
     </row>
-    <row r="46" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="22"/>
       <c r="B46" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="8">
         <v>43442</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="10"/>
+      <c r="I46" s="27"/>
       <c r="XDU46"/>
       <c r="XDV46"/>
       <c r="XDW46"/>
@@ -3209,20 +3287,21 @@
       <c r="XFC46"/>
       <c r="XFD46"/>
     </row>
-    <row r="47" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="8">
         <v>43442</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="10"/>
+      <c r="I47" s="27"/>
       <c r="XDU47"/>
       <c r="XDV47"/>
       <c r="XDW47"/>
@@ -3260,22 +3339,23 @@
       <c r="XFC47"/>
       <c r="XFD47"/>
     </row>
-    <row r="48" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="D48" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="8">
         <v>43442</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="10"/>
+      <c r="I48" s="27"/>
       <c r="XDU48"/>
       <c r="XDV48"/>
       <c r="XDW48"/>
@@ -3313,20 +3393,22 @@
       <c r="XFC48"/>
       <c r="XFD48"/>
     </row>
-    <row r="49" spans="1:7 16349:16384" s="3" customFormat="1" ht="40.5">
+    <row r="49" spans="1:9 16349:16384" s="3" customFormat="1" ht="40.5" hidden="1">
       <c r="A49" s="22"/>
       <c r="B49" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="8">
         <v>43442</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU49"/>
       <c r="XDV49"/>
       <c r="XDW49"/>
@@ -3364,20 +3446,22 @@
       <c r="XFC49"/>
       <c r="XFD49"/>
     </row>
-    <row r="50" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="50" spans="1:9 16349:16384" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="22"/>
       <c r="B50" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="8">
         <v>43442</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU50"/>
       <c r="XDV50"/>
       <c r="XDW50"/>
@@ -3415,20 +3499,22 @@
       <c r="XFC50"/>
       <c r="XFD50"/>
     </row>
-    <row r="51" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="51" spans="1:9 16349:16384" s="3" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="22"/>
       <c r="B51" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="8">
         <v>43442</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="XDU51"/>
       <c r="XDV51"/>
       <c r="XDW51"/>
@@ -3466,20 +3552,21 @@
       <c r="XFC51"/>
       <c r="XFD51"/>
     </row>
-    <row r="52" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="52" spans="1:9 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A52" s="22"/>
       <c r="B52" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="8">
         <v>43442</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="10"/>
+      <c r="I52" s="27"/>
       <c r="XDU52"/>
       <c r="XDV52"/>
       <c r="XDW52"/>
@@ -3517,14 +3604,14 @@
       <c r="XFC52"/>
       <c r="XFD52"/>
     </row>
-    <row r="53" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
       <c r="D53" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="8">
         <v>43442</v>
@@ -3568,22 +3655,23 @@
       <c r="XFC53"/>
       <c r="XFD53"/>
     </row>
-    <row r="54" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="54" spans="1:9 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" s="8">
         <v>43442</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="10"/>
+      <c r="I54" s="27"/>
       <c r="XDU54"/>
       <c r="XDV54"/>
       <c r="XDW54"/>
@@ -3621,21 +3709,21 @@
       <c r="XFC54"/>
       <c r="XFD54"/>
     </row>
-    <row r="55" spans="1:7 16349:16384" s="3" customFormat="1" ht="40.5">
+    <row r="55" spans="1:9 16349:16384" s="3" customFormat="1" ht="40.5" hidden="1">
       <c r="A55" s="23"/>
       <c r="B55" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="8">
         <v>43442</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="XDU55"/>
       <c r="XDV55"/>
@@ -3674,16 +3762,16 @@
       <c r="XFC55"/>
       <c r="XFD55"/>
     </row>
-    <row r="56" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="8">
         <v>43442</v>
@@ -3727,24 +3815,25 @@
       <c r="XFC56"/>
       <c r="XFD56"/>
     </row>
-    <row r="57" spans="1:7 16349:16384" s="3" customFormat="1" ht="27">
+    <row r="57" spans="1:9 16349:16384" s="3" customFormat="1" ht="27">
       <c r="A57" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="C57" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E57" s="8">
         <v>43442</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="10"/>
+      <c r="I57" s="27"/>
       <c r="XDU57"/>
       <c r="XDV57"/>
       <c r="XDW57"/>
@@ -3782,12 +3871,12 @@
       <c r="XFC57"/>
       <c r="XFD57"/>
     </row>
-    <row r="58" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="2"/>
       <c r="D58" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E58" s="8">
         <v>43442</v>
@@ -3831,15 +3920,15 @@
       <c r="XFC58"/>
       <c r="XFD58"/>
     </row>
-    <row r="59" spans="1:7 16349:16384" s="3" customFormat="1" ht="24">
+    <row r="59" spans="1:9 16349:16384" s="3" customFormat="1" ht="24">
       <c r="A59" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="8">
@@ -3884,16 +3973,16 @@
       <c r="XFC59"/>
       <c r="XFD59"/>
     </row>
-    <row r="60" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="8">
         <v>43444</v>
@@ -3937,16 +4026,16 @@
       <c r="XFC60"/>
       <c r="XFD60"/>
     </row>
-    <row r="61" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="8">
         <v>43444</v>
@@ -3990,16 +4079,16 @@
       <c r="XFC61"/>
       <c r="XFD61"/>
     </row>
-    <row r="62" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="8">
         <v>43444</v>
@@ -4043,16 +4132,16 @@
       <c r="XFC62"/>
       <c r="XFD62"/>
     </row>
-    <row r="63" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="8">
         <v>43444</v>
@@ -4096,16 +4185,16 @@
       <c r="XFC63"/>
       <c r="XFD63"/>
     </row>
-    <row r="64" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="25"/>
       <c r="B64" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" s="8">
         <v>43444</v>
@@ -4149,16 +4238,16 @@
       <c r="XFC64"/>
       <c r="XFD64"/>
     </row>
-    <row r="65" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="8">
         <v>43444</v>
@@ -4202,22 +4291,23 @@
       <c r="XFC65"/>
       <c r="XFD65"/>
     </row>
-    <row r="66" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" s="8">
         <v>43444</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
+      <c r="I66" s="27"/>
       <c r="XDU66"/>
       <c r="XDV66"/>
       <c r="XDW66"/>
@@ -4255,20 +4345,21 @@
       <c r="XFC66"/>
       <c r="XFD66"/>
     </row>
-    <row r="67" spans="1:7 16349:16384" s="3" customFormat="1" ht="24.75">
+    <row r="67" spans="1:9 16349:16384" s="3" customFormat="1" ht="24.75">
       <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="8">
         <v>43444</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="10"/>
+      <c r="I67" s="27"/>
       <c r="XDU67"/>
       <c r="XDV67"/>
       <c r="XDW67"/>
@@ -4306,14 +4397,14 @@
       <c r="XFC67"/>
       <c r="XFD67"/>
     </row>
-    <row r="68" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68" s="8">
         <v>43444</v>
@@ -4357,16 +4448,16 @@
       <c r="XFC68"/>
       <c r="XFD68"/>
     </row>
-    <row r="69" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="20"/>
       <c r="B69" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="8">
         <v>43444</v>
@@ -4410,14 +4501,14 @@
       <c r="XFC69"/>
       <c r="XFD69"/>
     </row>
-    <row r="70" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="20"/>
       <c r="B70" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" s="8">
         <v>43444</v>
@@ -4461,16 +4552,16 @@
       <c r="XFC70"/>
       <c r="XFD70"/>
     </row>
-    <row r="71" spans="1:7 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:9 16349:16384" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="20"/>
       <c r="B71" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="8">
         <v>43444</v>
@@ -4514,13 +4605,13 @@
       <c r="XFC71"/>
       <c r="XFD71"/>
     </row>
-    <row r="72" spans="1:7 16349:16384" s="3" customFormat="1" ht="100.5">
+    <row r="72" spans="1:9 16349:16384" s="3" customFormat="1" ht="100.5">
       <c r="A72" s="20"/>
       <c r="B72" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="8">
@@ -4566,6 +4657,11 @@
       <c r="XFD72"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:XFD72">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A16"/>
@@ -4604,61 +4700,61 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="C3" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="I8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="C9" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="F13" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="18"/>
     </row>
@@ -4668,23 +4764,23 @@
     </row>
     <row r="15" spans="1:9">
       <c r="D15" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="18"/>
     </row>
